--- a/similarities/split_global/harmonic_similarity_timestamps_177.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_177.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:48.420000', '0:00:58.560000')]</t>
+          <t>('0:01:32.040000', '0:01:44.400000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:03.520000')]</t>
+          <t>('0:00:38.860000', '0:00:42.240000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=48.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.86</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:58.990317', '0:01:03.680748')]</t>
+          <t>('0:00:38.860000', '0:00:42.240000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:19.300000', '0:00:25')]</t>
+          <t>('0:01:26.940000', '0:01:37.980000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=58.990317']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.86</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=19.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E', 'A', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:03:20.520000', '0:03:23.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:01:04.193106', '0:01:09.789115')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=200.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=64.193106</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:00.360000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.400000', '0:00:09.040000')]</t>
+          <t>('0:02:27.580000', '0:03:02.300000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=147.58</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>jaah_23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>jaah_84</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+          <t>('0:00:51.170000', '0:00:54.730000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+          <t>('0:00:22.170000', '0:00:31.310000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=51.17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-84#t=22.17</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['E', 'E:7/3', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
+          <t>('0:00:20.410362', '0:00:24.856984')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:51.800000', '0:00:59.900000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:27.200000')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:24.560000')]</t>
+          <t>('0:00:21.213174', '0:00:26.402834')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:25.180000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:50.160000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:42'), ('0:01:38.560000', '0:01:51.740000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.260000', '0:00:44.840000'), ('0:01:04.420000', '0:01:09.700000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=98.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=41.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=64.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/b7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/6']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:52.386000', '0:00:56.294000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:09.901000', '0:01:17.903000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=52.386']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=69.901']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3'], ['G', 'C', 'G/3']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F'], ['F', 'Bb', 'F']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:15.565442', '0:00:19.466394'), ('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:31.310000', '0:00:34.950000'), ('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:01:56.660000', '0:02:01.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=31.31', 'https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:49.402280', '0:00:59.224321')]</t>
+          <t>('0:01:07.760000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+          <t>('0:00:15.300000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=49.40228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:37.120000', '0:00:40.300000'), ('0:00:10.380000', '0:00:16.320000'), ('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:13.336043', '0:00:26.115071')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:12.960000', '0:00:17.700000'), ('0:00:00.780000', '0:00:05.260000'), ('0:02:03.220000', '0:02:06.880000')]</t>
+          <t>('0:02:11.140000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=37.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=12.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=131.14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb/5', 'Bb:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:15.633000', '0:04:18.257000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.100000', '0:00:12.860000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=255.633']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=6.1']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
